--- a/euler345/euler第345题.xlsx
+++ b/euler345/euler第345题.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>剩余矩阵</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,6 +177,57 @@
     <t xml:space="preserve">path: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>(x,y)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 4)</t>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+  </si>
+  <si>
+    <t>(2, 2)</t>
+  </si>
+  <si>
+    <t>(3, 3)</t>
+  </si>
+  <si>
+    <t>(4, 0)</t>
+  </si>
+  <si>
+    <t>去掉(第0列, 第0行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉(第0列, 第3行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉(第0列, 第4行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉(第0列, 第1行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉(第0列, 第2行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1, 3, 2, 4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +280,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +381,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,13 +1142,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1105,13 +1186,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1437,15 +1518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G23"/>
+  <dimension ref="B4:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>0</v>
       </c>
@@ -1485,7 +1566,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -1505,7 +1586,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -1525,7 +1606,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -1544,8 +1625,11 @@
       <c r="G8" s="4">
         <v>943</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I8" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>4</v>
       </c>
@@ -1564,16 +1648,141 @@
       <c r="G9" s="4">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I9" s="15">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>53</v>
+      </c>
+      <c r="K9" s="4">
+        <v>183</v>
+      </c>
+      <c r="L9" s="4">
+        <v>439</v>
+      </c>
+      <c r="M9" s="4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I10" s="4">
+        <v>497</v>
+      </c>
+      <c r="J10" s="15">
+        <v>383</v>
+      </c>
+      <c r="K10" s="4">
+        <v>563</v>
+      </c>
+      <c r="L10" s="4">
+        <v>79</v>
+      </c>
+      <c r="M10" s="4">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I11" s="4">
+        <v>287</v>
+      </c>
+      <c r="J11" s="4">
+        <v>63</v>
+      </c>
+      <c r="K11" s="15">
+        <v>343</v>
+      </c>
+      <c r="L11" s="4">
+        <v>169</v>
+      </c>
+      <c r="M11" s="4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I12" s="4">
+        <v>627</v>
+      </c>
+      <c r="J12" s="4">
+        <v>343</v>
+      </c>
+      <c r="K12" s="4">
+        <v>773</v>
+      </c>
+      <c r="L12" s="15">
+        <v>959</v>
+      </c>
+      <c r="M12" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I13" s="4">
+        <v>767</v>
+      </c>
+      <c r="J13" s="4">
+        <v>473</v>
+      </c>
+      <c r="K13" s="4">
+        <v>103</v>
+      </c>
+      <c r="L13" s="4">
+        <v>699</v>
+      </c>
+      <c r="M13" s="15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="15">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>53</v>
+      </c>
+      <c r="K17" s="4">
+        <v>183</v>
+      </c>
+      <c r="L17" s="4">
+        <v>439</v>
+      </c>
+      <c r="M17" s="4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1801,23 @@
       <c r="G18" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <v>497</v>
+      </c>
+      <c r="J18" s="15">
+        <v>383</v>
+      </c>
+      <c r="K18" s="4">
+        <v>563</v>
+      </c>
+      <c r="L18" s="4">
+        <v>79</v>
+      </c>
+      <c r="M18" s="4">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>0</v>
       </c>
@@ -1612,8 +1836,23 @@
       <c r="G19" s="15">
         <v>863</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <v>287</v>
+      </c>
+      <c r="J19" s="4">
+        <v>63</v>
+      </c>
+      <c r="K19" s="4">
+        <v>343</v>
+      </c>
+      <c r="L19" s="15">
+        <v>169</v>
+      </c>
+      <c r="M19" s="4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -1632,8 +1871,23 @@
       <c r="G20" s="4">
         <v>973</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="4">
+        <v>627</v>
+      </c>
+      <c r="J20" s="4">
+        <v>343</v>
+      </c>
+      <c r="K20" s="15">
+        <v>773</v>
+      </c>
+      <c r="L20" s="4">
+        <v>959</v>
+      </c>
+      <c r="M20" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>2</v>
       </c>
@@ -1652,8 +1906,23 @@
       <c r="G21" s="4">
         <v>583</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="4">
+        <v>767</v>
+      </c>
+      <c r="J21" s="4">
+        <v>473</v>
+      </c>
+      <c r="K21" s="4">
+        <v>103</v>
+      </c>
+      <c r="L21" s="4">
+        <v>699</v>
+      </c>
+      <c r="M21" s="15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>3</v>
       </c>
@@ -1673,7 +1942,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>4</v>
       </c>
@@ -1703,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3367,797 +3636,1037 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R36"/>
+  <dimension ref="B3:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="6" width="7.375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="6.625" customWidth="1"/>
+    <col min="3" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="21" customWidth="1"/>
+    <col min="10" max="10" width="1.75" customWidth="1"/>
+    <col min="11" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="8">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>53</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>183</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>439</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>863</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="H4" s="18"/>
+      <c r="I4" s="17">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>497</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>383</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>563</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>79</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>973</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="18"/>
+      <c r="K5" s="4">
         <v>383</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L5" s="4">
         <v>563</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <v>79</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="4">
         <v>973</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>287</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>63</v>
       </c>
-      <c r="D6" s="4">
-        <v>343</v>
-      </c>
       <c r="E6" s="4">
+        <v>343</v>
+      </c>
+      <c r="F6" s="4">
         <v>169</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>583</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="18"/>
+      <c r="K6" s="4">
         <v>63</v>
       </c>
-      <c r="I6" s="4">
-        <v>343</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
+        <v>343</v>
+      </c>
+      <c r="M6" s="4">
         <v>169</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <v>583</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>627</v>
       </c>
-      <c r="C7" s="4">
-        <v>343</v>
-      </c>
       <c r="D7" s="4">
+        <v>343</v>
+      </c>
+      <c r="E7" s="4">
         <v>773</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>959</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>943</v>
       </c>
-      <c r="H7" s="4">
-        <v>343</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="18"/>
+      <c r="K7" s="4">
+        <v>343</v>
+      </c>
+      <c r="L7" s="4">
         <v>773</v>
       </c>
-      <c r="J7" s="4">
+      <c r="M7" s="4">
         <v>959</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <v>943</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>767</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>473</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>103</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>699</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>303</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="18"/>
+      <c r="K8" s="4">
         <v>473</v>
       </c>
-      <c r="I8" s="4">
+      <c r="L8" s="4">
         <v>103</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="4">
         <v>699</v>
       </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>53</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>183</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>439</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>863</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
+      <c r="H11" s="18"/>
+      <c r="I11" s="22">
         <v>497</v>
       </c>
-      <c r="C12" s="3">
+      <c r="J11" s="20"/>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C12" s="2">
+        <v>497</v>
+      </c>
+      <c r="D12" s="3">
         <v>383</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>563</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>79</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>973</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="18"/>
+      <c r="K12" s="4">
         <v>53</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L12" s="4">
         <v>183</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
         <v>439</v>
       </c>
-      <c r="K12" s="4">
+      <c r="N12" s="4">
         <v>863</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C13" s="3">
         <v>287</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>63</v>
       </c>
-      <c r="D13" s="4">
-        <v>343</v>
-      </c>
       <c r="E13" s="4">
+        <v>343</v>
+      </c>
+      <c r="F13" s="4">
         <v>169</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>583</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="18"/>
+      <c r="K13" s="4">
         <v>63</v>
       </c>
-      <c r="I13" s="4">
-        <v>343</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
+        <v>343</v>
+      </c>
+      <c r="M13" s="4">
         <v>169</v>
       </c>
-      <c r="K13" s="4">
+      <c r="N13" s="4">
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C14" s="3">
         <v>627</v>
       </c>
-      <c r="C14" s="4">
-        <v>343</v>
-      </c>
       <c r="D14" s="4">
+        <v>343</v>
+      </c>
+      <c r="E14" s="4">
         <v>773</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>959</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>943</v>
       </c>
-      <c r="H14" s="4">
-        <v>343</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="18"/>
+      <c r="K14" s="4">
+        <v>343</v>
+      </c>
+      <c r="L14" s="4">
         <v>773</v>
       </c>
-      <c r="J14" s="4">
+      <c r="M14" s="4">
         <v>959</v>
       </c>
-      <c r="K14" s="4">
+      <c r="N14" s="4">
         <v>943</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C15" s="3">
         <v>767</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>473</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>103</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>699</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>303</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="18"/>
+      <c r="K15" s="4">
         <v>473</v>
       </c>
-      <c r="I15" s="4">
+      <c r="L15" s="4">
         <v>103</v>
       </c>
-      <c r="J15" s="4">
+      <c r="M15" s="4">
         <v>699</v>
       </c>
-      <c r="K15" s="4">
+      <c r="N15" s="4">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>53</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>183</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>439</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>863</v>
       </c>
-      <c r="N18" s="3">
+      <c r="H18" s="18"/>
+      <c r="I18" s="22">
+        <v>287</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="3">
         <v>7</v>
       </c>
-      <c r="O18" s="4">
+      <c r="R18" s="4">
         <v>53</v>
       </c>
-      <c r="P18" s="4">
+      <c r="S18" s="4">
         <v>183</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="T18" s="4">
         <v>439</v>
       </c>
-      <c r="R18" s="4">
+      <c r="U18" s="4">
         <v>863</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C19" s="3">
         <v>497</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>383</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>563</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>79</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>973</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18"/>
+      <c r="K19" s="4">
         <v>53</v>
       </c>
-      <c r="I19" s="4">
+      <c r="L19" s="4">
         <v>183</v>
       </c>
-      <c r="J19" s="4">
+      <c r="M19" s="4">
         <v>439</v>
       </c>
-      <c r="K19" s="4">
+      <c r="N19" s="4">
         <v>863</v>
       </c>
-      <c r="N19" s="3">
+      <c r="Q19" s="3">
         <v>497</v>
       </c>
-      <c r="O19" s="5">
+      <c r="R19" s="5">
         <v>383</v>
       </c>
-      <c r="P19" s="4">
+      <c r="S19" s="4">
         <v>563</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="T19" s="4">
         <v>79</v>
       </c>
-      <c r="R19" s="4">
+      <c r="U19" s="4">
         <v>973</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C20" s="2">
         <v>287</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>63</v>
       </c>
-      <c r="D20" s="3">
-        <v>343</v>
-      </c>
       <c r="E20" s="3">
+        <v>343</v>
+      </c>
+      <c r="F20" s="3">
         <v>169</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>583</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="18"/>
+      <c r="K20" s="4">
         <v>383</v>
       </c>
-      <c r="I20" s="4">
+      <c r="L20" s="4">
         <v>563</v>
       </c>
-      <c r="J20" s="4">
+      <c r="M20" s="4">
         <v>79</v>
       </c>
-      <c r="K20" s="4">
+      <c r="N20" s="4">
         <v>973</v>
       </c>
-      <c r="N20" s="2">
+      <c r="Q20" s="2">
         <v>287</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>63</v>
       </c>
-      <c r="P20" s="3">
-        <v>343</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
+        <v>343</v>
+      </c>
+      <c r="T20" s="3">
         <v>169</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C21" s="3">
         <v>627</v>
       </c>
-      <c r="C21" s="4">
-        <v>343</v>
-      </c>
       <c r="D21" s="4">
+        <v>343</v>
+      </c>
+      <c r="E21" s="4">
         <v>773</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>959</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>943</v>
       </c>
-      <c r="H21" s="4">
-        <v>343</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="18"/>
+      <c r="K21" s="4">
+        <v>343</v>
+      </c>
+      <c r="L21" s="4">
         <v>773</v>
       </c>
-      <c r="J21" s="4">
+      <c r="M21" s="4">
         <v>959</v>
       </c>
-      <c r="K21" s="4">
+      <c r="N21" s="4">
         <v>943</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>627</v>
       </c>
-      <c r="O21" s="4">
-        <v>343</v>
-      </c>
-      <c r="P21" s="4">
+      <c r="R21" s="4">
+        <v>343</v>
+      </c>
+      <c r="S21" s="4">
         <v>773</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="T21" s="4">
         <v>959</v>
       </c>
-      <c r="R21" s="4">
+      <c r="U21" s="4">
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C22" s="3">
         <v>767</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>473</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>103</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>699</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>303</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="18"/>
+      <c r="K22" s="4">
         <v>473</v>
       </c>
-      <c r="I22" s="4">
+      <c r="L22" s="4">
         <v>103</v>
       </c>
-      <c r="J22" s="4">
+      <c r="M22" s="4">
         <v>699</v>
       </c>
-      <c r="K22" s="4">
+      <c r="N22" s="4">
         <v>303</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>767</v>
       </c>
-      <c r="O22" s="4">
+      <c r="R22" s="4">
         <v>473</v>
       </c>
-      <c r="P22" s="4">
+      <c r="S22" s="4">
         <v>103</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="T22" s="4">
         <v>699</v>
       </c>
-      <c r="R22" s="4">
+      <c r="U22" s="4">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C25" s="3">
         <v>7</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>53</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>183</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>439</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>863</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="H25" s="18"/>
+      <c r="I25" s="22">
+        <v>627</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C26" s="3">
         <v>497</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>383</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>563</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>79</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>973</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="18"/>
+      <c r="K26" s="4">
         <v>53</v>
       </c>
-      <c r="I26" s="4">
+      <c r="L26" s="4">
         <v>183</v>
       </c>
-      <c r="J26" s="4">
+      <c r="M26" s="4">
         <v>439</v>
       </c>
-      <c r="K26" s="4">
+      <c r="N26" s="4">
         <v>863</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="Q26" s="2">
+        <v>7</v>
+      </c>
+      <c r="R26" s="3">
+        <v>53</v>
+      </c>
+      <c r="S26" s="3">
+        <v>183</v>
+      </c>
+      <c r="T26" s="3">
+        <v>439</v>
+      </c>
+      <c r="U26" s="3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C27" s="3">
         <v>287</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>63</v>
       </c>
-      <c r="D27" s="4">
-        <v>343</v>
-      </c>
       <c r="E27" s="4">
+        <v>343</v>
+      </c>
+      <c r="F27" s="4">
         <v>169</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>583</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="18"/>
+      <c r="K27" s="4">
         <v>383</v>
       </c>
-      <c r="I27" s="4">
+      <c r="L27" s="4">
         <v>563</v>
       </c>
-      <c r="J27" s="4">
+      <c r="M27" s="4">
         <v>79</v>
       </c>
-      <c r="K27" s="4">
+      <c r="N27" s="4">
         <v>973</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
+      <c r="Q27" s="3">
+        <v>497</v>
+      </c>
+      <c r="R27" s="23">
+        <v>383</v>
+      </c>
+      <c r="S27" s="3">
+        <v>563</v>
+      </c>
+      <c r="T27" s="3">
+        <v>79</v>
+      </c>
+      <c r="U27" s="3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C28" s="2">
         <v>627</v>
       </c>
-      <c r="C28" s="3">
-        <v>343</v>
-      </c>
       <c r="D28" s="3">
+        <v>343</v>
+      </c>
+      <c r="E28" s="3">
         <v>773</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>959</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>943</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="18"/>
+      <c r="K28" s="4">
         <v>63</v>
       </c>
-      <c r="I28" s="4">
-        <v>343</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="L28" s="4">
+        <v>343</v>
+      </c>
+      <c r="M28" s="4">
         <v>169</v>
       </c>
-      <c r="K28" s="4">
+      <c r="N28" s="4">
         <v>583</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
+      <c r="Q28" s="3">
+        <v>287</v>
+      </c>
+      <c r="R28" s="3">
+        <v>63</v>
+      </c>
+      <c r="S28" s="4">
+        <v>343</v>
+      </c>
+      <c r="T28" s="4">
+        <v>169</v>
+      </c>
+      <c r="U28" s="4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C29" s="3">
         <v>767</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>473</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>103</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>699</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>303</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="18"/>
+      <c r="K29" s="4">
         <v>473</v>
       </c>
-      <c r="I29" s="4">
+      <c r="L29" s="4">
         <v>103</v>
       </c>
-      <c r="J29" s="4">
+      <c r="M29" s="4">
         <v>699</v>
       </c>
-      <c r="K29" s="4">
+      <c r="N29" s="4">
         <v>303</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
+      <c r="Q29" s="3">
+        <v>627</v>
+      </c>
+      <c r="R29" s="3">
+        <v>343</v>
+      </c>
+      <c r="S29" s="4">
+        <v>773</v>
+      </c>
+      <c r="T29" s="4">
+        <v>959</v>
+      </c>
+      <c r="U29" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="H30" s="18"/>
+      <c r="Q30" s="3">
+        <v>767</v>
+      </c>
+      <c r="R30" s="3">
+        <v>473</v>
+      </c>
+      <c r="S30" s="4">
+        <v>103</v>
+      </c>
+      <c r="T30" s="4">
+        <v>699</v>
+      </c>
+      <c r="U30" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C32" s="3">
         <v>7</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>53</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>183</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>439</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>863</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
+      <c r="H32" s="18"/>
+      <c r="I32" s="22">
+        <v>767</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C33" s="3">
         <v>497</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>383</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>563</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>79</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>973</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="19"/>
+      <c r="K33" s="4">
         <v>53</v>
       </c>
-      <c r="I33" s="4">
+      <c r="L33" s="4">
         <v>183</v>
       </c>
-      <c r="J33" s="4">
+      <c r="M33" s="4">
         <v>439</v>
       </c>
-      <c r="K33" s="4">
+      <c r="N33" s="4">
         <v>863</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
+      <c r="Q33" s="3">
+        <v>7</v>
+      </c>
+      <c r="R33" s="2">
+        <v>53</v>
+      </c>
+      <c r="S33" s="3">
+        <v>183</v>
+      </c>
+      <c r="T33" s="3">
+        <v>439</v>
+      </c>
+      <c r="U33" s="3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C34" s="3">
         <v>287</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>63</v>
       </c>
-      <c r="D34" s="4">
-        <v>343</v>
-      </c>
       <c r="E34" s="4">
+        <v>343</v>
+      </c>
+      <c r="F34" s="4">
         <v>169</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>583</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="19"/>
+      <c r="K34" s="4">
         <v>383</v>
       </c>
-      <c r="I34" s="4">
+      <c r="L34" s="4">
         <v>563</v>
       </c>
-      <c r="J34" s="4">
+      <c r="M34" s="4">
         <v>79</v>
       </c>
-      <c r="K34" s="4">
+      <c r="N34" s="4">
         <v>973</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
+      <c r="Q34" s="23">
+        <v>497</v>
+      </c>
+      <c r="R34" s="3">
+        <v>383</v>
+      </c>
+      <c r="S34" s="3">
+        <v>563</v>
+      </c>
+      <c r="T34" s="3">
+        <v>79</v>
+      </c>
+      <c r="U34" s="3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C35" s="3">
         <v>627</v>
       </c>
-      <c r="C35" s="4">
-        <v>343</v>
-      </c>
       <c r="D35" s="4">
+        <v>343</v>
+      </c>
+      <c r="E35" s="4">
         <v>773</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>959</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>943</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="19"/>
+      <c r="K35" s="4">
         <v>63</v>
       </c>
-      <c r="I35" s="4">
-        <v>343</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4">
+        <v>343</v>
+      </c>
+      <c r="M35" s="4">
         <v>169</v>
       </c>
-      <c r="K35" s="4">
+      <c r="N35" s="4">
         <v>583</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
+      <c r="Q35" s="3">
+        <v>287</v>
+      </c>
+      <c r="R35" s="3">
+        <v>63</v>
+      </c>
+      <c r="S35" s="4">
+        <v>343</v>
+      </c>
+      <c r="T35" s="4">
+        <v>169</v>
+      </c>
+      <c r="U35" s="4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="C36" s="2">
         <v>767</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>473</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>103</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>699</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>303</v>
       </c>
-      <c r="H36" s="4">
-        <v>343</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="18"/>
+      <c r="K36" s="4">
+        <v>343</v>
+      </c>
+      <c r="L36" s="4">
         <v>773</v>
       </c>
-      <c r="J36" s="4">
+      <c r="M36" s="4">
         <v>959</v>
       </c>
-      <c r="K36" s="4">
+      <c r="N36" s="4">
         <v>943</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>627</v>
+      </c>
+      <c r="R36" s="3">
+        <v>343</v>
+      </c>
+      <c r="S36" s="4">
+        <v>773</v>
+      </c>
+      <c r="T36" s="4">
+        <v>959</v>
+      </c>
+      <c r="U36" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.15">
+      <c r="Q37" s="3">
+        <v>767</v>
+      </c>
+      <c r="R37" s="3">
+        <v>473</v>
+      </c>
+      <c r="S37" s="4">
+        <v>103</v>
+      </c>
+      <c r="T37" s="4">
+        <v>699</v>
+      </c>
+      <c r="U37" s="4">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
